--- a/EZDown/excel.xlsx
+++ b/EZDown/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jo Ju Eun\Documents\GitHub\sc-musicOS\EZDown\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyi07\OneDrive\문서\git\sc-musicOS\EZDown\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE71C8D6-402E-4344-9B22-55A6807AA987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857A7AC2-BF82-435A-96E3-63C0B29A6E29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1402,10 +1402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>미사용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1415,6 +1411,10 @@
   </si>
   <si>
     <t>한국 가요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1811,7 +1811,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>23</v>
@@ -1870,7 +1870,7 @@
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>6</v>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>15</v>
@@ -1999,10 +1999,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
